--- a/pointeuse.xlsx
+++ b/pointeuse.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,13 +990,28 @@
       <c r="A27" s="1">
         <v>43014</v>
       </c>
+      <c r="B27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5.6</v>
       </c>
       <c r="I27" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">

--- a/pointeuse.xlsx
+++ b/pointeuse.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>chinois</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>kebab</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +489,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E33" si="0">C3-B3-D3</f>
+        <f t="shared" ref="E3:E57" si="0">C3-B3-D3</f>
         <v>0.29166666666666669</v>
       </c>
       <c r="G3" t="s">
@@ -493,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="b">
-        <f t="shared" ref="I3:I33" si="1">NOT(ISBLANK(B3))</f>
+        <f t="shared" ref="I3:I58" si="1">NOT(ISBLANK(B3))</f>
         <v>1</v>
       </c>
     </row>
@@ -1092,6 +1098,360 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43021</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43022</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43023</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43024</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43025</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43028</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43029</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43030</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43031</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43032</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43033</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43034</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43035</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43036</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43037</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43038</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43039</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43040</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43041</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43042</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43043</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43044</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43045</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
